--- a/app/Licenciatura_em_Antropologia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Antropologia_Pos_Laboral.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Maria Manuel Tomas</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Maria De Fatima Antonio</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>Madalena Daniel Mugabe</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110500700994S</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t xml:space="preserve">Maria Alice Fumo </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>Celestina Cossa</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090100172642F</t>
   </si>
   <si>
@@ -387,9 +372,6 @@
     <t>Olga.m.d.teixeira</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110400405339S</t>
   </si>
   <si>
@@ -460,9 +442,6 @@
   </si>
   <si>
     <t>Guilhermina F. Manjante</t>
-  </si>
-  <si>
-    <t>Distrito de Chókwé</t>
   </si>
   <si>
     <t>090602377995C</t>
@@ -1845,7 +1824,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1861,7 +1840,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1877,7 +1856,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1893,7 +1872,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1909,7 +1888,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1924,9 +1903,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1934,7 +1911,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1945,7 +1922,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1954,7 +1931,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1966,7 +1943,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1974,7 +1951,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2070,7 +2047,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2113,7 +2090,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2440,7 +2417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2456,7 +2433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2472,7 +2449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2488,7 +2465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2504,7 +2481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2519,9 +2496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2529,7 +2504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2540,7 +2515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2549,7 +2524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2561,7 +2536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2569,7 +2544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2665,7 +2640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2708,7 +2683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3035,7 +3010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3051,7 +3026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3067,7 +3042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3083,7 +3058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3099,7 +3074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3114,9 +3089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3124,7 +3097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3135,7 +3108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3144,7 +3117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3156,7 +3129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3164,7 +3137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3260,7 +3233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3303,7 +3276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3630,7 +3603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3646,7 +3619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3662,7 +3635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3678,7 +3651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3694,7 +3667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3709,9 +3682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3719,7 +3690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3730,7 +3701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3739,7 +3710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3751,7 +3722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3759,7 +3730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3855,7 +3826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3898,7 +3869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4225,7 +4196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4241,7 +4212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4432,7 +4403,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4798,7 +4769,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4814,7 +4785,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4830,7 +4801,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4846,7 +4817,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4862,7 +4833,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4877,9 +4848,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4887,7 +4856,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4898,7 +4867,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4907,7 +4876,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4919,7 +4888,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4927,7 +4896,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5023,7 +4992,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5066,7 +5035,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5393,7 +5362,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5409,7 +5378,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5425,7 +5394,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5441,7 +5410,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5457,7 +5426,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5472,9 +5441,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5482,7 +5449,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5493,7 +5460,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5502,7 +5469,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5514,7 +5481,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5522,7 +5489,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5618,7 +5585,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5661,7 +5628,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5988,7 +5955,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6004,7 +5971,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6020,7 +5987,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6036,7 +6003,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6052,7 +6019,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6067,9 +6034,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6077,7 +6042,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6088,7 +6053,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6097,7 +6062,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6109,7 +6074,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6117,7 +6082,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6213,7 +6178,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6256,7 +6221,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6583,7 +6548,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6599,7 +6564,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6790,7 +6755,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7156,7 +7121,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7172,7 +7137,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7363,7 +7328,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7808,9 +7773,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7818,7 +7781,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7829,7 +7792,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7838,7 +7801,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7850,7 +7813,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7858,7 +7821,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7954,7 +7917,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7997,7 +7960,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8324,7 +8287,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8340,7 +8303,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8531,7 +8494,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8953,7 +8916,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8969,7 +8932,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8985,7 +8948,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9001,7 +8964,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9017,7 +8980,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9032,9 +8995,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9042,7 +9003,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9053,7 +9014,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9062,7 +9023,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9074,7 +9035,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9082,7 +9043,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9178,7 +9139,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9221,7 +9182,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9548,7 +9509,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9564,7 +9525,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9580,7 +9541,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9596,7 +9557,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9612,7 +9573,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9627,9 +9588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9637,7 +9596,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9648,7 +9607,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9657,7 +9616,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9669,7 +9628,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9677,7 +9636,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9773,7 +9732,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9816,7 +9775,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10143,7 +10102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10159,7 +10118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10175,7 +10134,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10191,7 +10150,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10207,7 +10166,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10222,9 +10181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10232,7 +10189,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10243,7 +10200,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10252,7 +10209,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10264,7 +10221,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10272,7 +10229,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10368,7 +10325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10411,7 +10368,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10738,7 +10695,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10754,7 +10711,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10770,7 +10727,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10786,7 +10743,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10802,7 +10759,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10817,9 +10774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10827,7 +10782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10838,7 +10793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10847,7 +10802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10859,7 +10814,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10867,7 +10822,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10963,7 +10918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11006,7 +10961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11333,7 +11288,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11349,7 +11304,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11365,7 +11320,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11381,7 +11336,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11397,7 +11352,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11412,9 +11367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11422,7 +11375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11433,7 +11386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11442,7 +11395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11454,7 +11407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11462,7 +11415,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11558,7 +11511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11601,7 +11554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11928,7 +11881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11944,7 +11897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11960,7 +11913,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11976,7 +11929,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11992,7 +11945,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12007,9 +11960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12017,7 +11968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12028,7 +11979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12037,7 +11988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12049,7 +12000,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12057,7 +12008,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12153,7 +12104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12196,7 +12147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12523,7 +12474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12539,7 +12490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12555,7 +12506,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12571,7 +12522,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12587,7 +12538,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12602,9 +12553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12612,7 +12561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12623,7 +12572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12632,7 +12581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12644,7 +12593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12652,7 +12601,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12748,7 +12697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12791,7 +12740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
